--- a/data/outputs/数学期刊(上)_altmetric/23.Journal of Mathematical Sciences.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/23.Journal of Mathematical Sciences.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG457"/>
+  <dimension ref="A1:AH457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,6 +648,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -754,6 +762,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -867,6 +878,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -980,6 +994,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1093,6 +1110,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1204,6 +1224,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1315,6 +1338,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1426,6 +1452,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1537,6 +1566,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1648,6 +1680,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1759,6 +1794,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1870,6 +1908,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1981,6 +2022,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2094,6 +2138,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2207,6 +2254,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2318,6 +2368,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2431,6 +2484,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2542,6 +2598,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2653,6 +2712,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2764,6 +2826,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2875,6 +2940,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2986,6 +3054,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3099,6 +3170,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3210,6 +3284,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3321,6 +3398,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3432,6 +3512,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3543,6 +3626,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3654,6 +3740,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3765,6 +3854,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3876,6 +3968,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3987,6 +4082,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4098,6 +4196,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4211,6 +4312,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4322,6 +4426,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4433,6 +4540,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4544,6 +4654,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4657,6 +4770,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4770,6 +4886,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4883,6 +5002,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4996,6 +5118,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5109,6 +5234,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5222,6 +5350,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5333,6 +5464,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5446,6 +5580,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5559,6 +5696,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5670,6 +5810,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5781,6 +5924,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5894,6 +6040,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6005,6 +6154,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6118,6 +6270,9 @@
       <c r="AG51" t="n">
         <v>0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6229,6 +6384,9 @@
       <c r="AG52" t="n">
         <v>0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6340,6 +6498,9 @@
       <c r="AG53" t="n">
         <v>0</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6451,6 +6612,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6564,6 +6728,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6677,6 +6844,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6788,6 +6958,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6899,6 +7072,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7123,6 +7302,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7234,6 +7416,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7347,6 +7532,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7458,6 +7646,9 @@
       <c r="AG63" t="n">
         <v>0</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7571,6 +7762,9 @@
       <c r="AG64" t="n">
         <v>0</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7682,6 +7876,9 @@
       <c r="AG65" t="n">
         <v>0</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7795,6 +7992,9 @@
       <c r="AG66" t="n">
         <v>0</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7906,6 +8106,9 @@
       <c r="AG67" t="n">
         <v>0</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8019,6 +8222,9 @@
       <c r="AG68" t="n">
         <v>0</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8132,6 +8338,9 @@
       <c r="AG69" t="n">
         <v>0</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8245,6 +8454,9 @@
       <c r="AG70" t="n">
         <v>0</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8356,6 +8568,9 @@
       <c r="AG71" t="n">
         <v>0</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8467,6 +8682,9 @@
       <c r="AG72" t="n">
         <v>0</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8578,6 +8796,9 @@
       <c r="AG73" t="n">
         <v>0</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8689,6 +8910,9 @@
       <c r="AG74" t="n">
         <v>0</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8800,6 +9024,9 @@
       <c r="AG75" t="n">
         <v>0</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8911,6 +9138,9 @@
       <c r="AG76" t="n">
         <v>0</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9024,6 +9254,9 @@
       <c r="AG77" t="n">
         <v>0</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9135,6 +9368,9 @@
       <c r="AG78" t="n">
         <v>0</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9248,6 +9484,9 @@
       <c r="AG79" t="n">
         <v>0</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9361,6 +9600,9 @@
       <c r="AG80" t="n">
         <v>0</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9472,6 +9714,9 @@
       <c r="AG81" t="n">
         <v>0</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9583,6 +9828,9 @@
       <c r="AG82" t="n">
         <v>0</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9696,6 +9944,9 @@
       <c r="AG83" t="n">
         <v>0</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9807,6 +10058,9 @@
       <c r="AG84" t="n">
         <v>0</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9918,6 +10172,9 @@
       <c r="AG85" t="n">
         <v>0</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10031,6 +10288,9 @@
       <c r="AG86" t="n">
         <v>0</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10142,6 +10402,9 @@
       <c r="AG87" t="n">
         <v>0</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10255,6 +10518,9 @@
       <c r="AG88" t="n">
         <v>0</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10368,6 +10634,9 @@
       <c r="AG89" t="n">
         <v>0</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10479,6 +10748,9 @@
       <c r="AG90" t="n">
         <v>0</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10590,6 +10862,9 @@
       <c r="AG91" t="n">
         <v>0</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10703,6 +10978,9 @@
       <c r="AG92" t="n">
         <v>0</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10816,6 +11094,9 @@
       <c r="AG93" t="n">
         <v>0</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10927,6 +11208,9 @@
       <c r="AG94" t="n">
         <v>0</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11038,6 +11322,9 @@
       <c r="AG95" t="n">
         <v>0</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11149,6 +11436,9 @@
       <c r="AG96" t="n">
         <v>0</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11260,6 +11550,9 @@
       <c r="AG97" t="n">
         <v>0</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11371,6 +11664,9 @@
       <c r="AG98" t="n">
         <v>0</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11482,6 +11778,9 @@
       <c r="AG99" t="n">
         <v>0</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11593,6 +11892,9 @@
       <c r="AG100" t="n">
         <v>0</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11704,6 +12006,9 @@
       <c r="AG101" t="n">
         <v>0</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11815,6 +12120,9 @@
       <c r="AG102" t="n">
         <v>0</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11928,6 +12236,9 @@
       <c r="AG103" t="n">
         <v>0</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12041,6 +12352,9 @@
       <c r="AG104" t="n">
         <v>0</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12156,6 +12470,9 @@
       <c r="AG105" t="n">
         <v>0</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12273,6 +12590,9 @@
       <c r="AG106" t="n">
         <v>0</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12390,6 +12710,9 @@
       <c r="AG107" t="n">
         <v>0</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12505,6 +12828,9 @@
       <c r="AG108" t="n">
         <v>0</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12620,6 +12946,9 @@
       <c r="AG109" t="n">
         <v>0</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12737,6 +13066,9 @@
       <c r="AG110" t="n">
         <v>0</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12854,6 +13186,9 @@
       <c r="AG111" t="n">
         <v>0</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12971,6 +13306,9 @@
       <c r="AG112" t="n">
         <v>0</v>
       </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13088,6 +13426,9 @@
       <c r="AG113" t="n">
         <v>0</v>
       </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13203,6 +13544,9 @@
       <c r="AG114" t="n">
         <v>0</v>
       </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13320,6 +13664,9 @@
       <c r="AG115" t="n">
         <v>0</v>
       </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13437,6 +13784,9 @@
       <c r="AG116" t="n">
         <v>0</v>
       </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13552,6 +13902,9 @@
       <c r="AG117" t="n">
         <v>0</v>
       </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13667,6 +14020,9 @@
       <c r="AG118" t="n">
         <v>0</v>
       </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13780,6 +14136,9 @@
       <c r="AG119" t="n">
         <v>0</v>
       </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13893,6 +14252,9 @@
       <c r="AG120" t="n">
         <v>0</v>
       </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14004,6 +14366,9 @@
       <c r="AG121" t="n">
         <v>0</v>
       </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14117,6 +14482,9 @@
       <c r="AG122" t="n">
         <v>0</v>
       </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14228,6 +14596,9 @@
       <c r="AG123" t="n">
         <v>0</v>
       </c>
+      <c r="AH123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14339,6 +14710,9 @@
       <c r="AG124" t="n">
         <v>0</v>
       </c>
+      <c r="AH124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14452,6 +14826,9 @@
       <c r="AG125" t="n">
         <v>0</v>
       </c>
+      <c r="AH125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14563,6 +14940,9 @@
       <c r="AG126" t="n">
         <v>0</v>
       </c>
+      <c r="AH126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14676,6 +15056,9 @@
       <c r="AG127" t="n">
         <v>0</v>
       </c>
+      <c r="AH127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14789,6 +15172,9 @@
       <c r="AG128" t="n">
         <v>0</v>
       </c>
+      <c r="AH128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14900,6 +15286,9 @@
       <c r="AG129" t="n">
         <v>0</v>
       </c>
+      <c r="AH129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15011,6 +15400,9 @@
       <c r="AG130" t="n">
         <v>0</v>
       </c>
+      <c r="AH130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15124,6 +15516,9 @@
       <c r="AG131" t="n">
         <v>0</v>
       </c>
+      <c r="AH131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15235,6 +15630,9 @@
       <c r="AG132" t="n">
         <v>0</v>
       </c>
+      <c r="AH132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15348,6 +15746,9 @@
       <c r="AG133" t="n">
         <v>0</v>
       </c>
+      <c r="AH133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15461,6 +15862,9 @@
       <c r="AG134" t="n">
         <v>0</v>
       </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15574,6 +15978,9 @@
       <c r="AG135" t="n">
         <v>0</v>
       </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15687,6 +16094,9 @@
       <c r="AG136" t="n">
         <v>0</v>
       </c>
+      <c r="AH136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15798,6 +16208,9 @@
         <v>0</v>
       </c>
       <c r="AG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15909,6 +16322,9 @@
       <c r="AG138" t="n">
         <v>0</v>
       </c>
+      <c r="AH138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16020,6 +16436,9 @@
       <c r="AG139" t="n">
         <v>0</v>
       </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16131,6 +16550,9 @@
       <c r="AG140" t="n">
         <v>0</v>
       </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16242,6 +16664,9 @@
       <c r="AG141" t="n">
         <v>0</v>
       </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16355,6 +16780,9 @@
       <c r="AG142" t="n">
         <v>0</v>
       </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16466,6 +16894,9 @@
       <c r="AG143" t="n">
         <v>0</v>
       </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16577,6 +17008,9 @@
       <c r="AG144" t="n">
         <v>0</v>
       </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16690,6 +17124,9 @@
       <c r="AG145" t="n">
         <v>0</v>
       </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16803,6 +17240,9 @@
       <c r="AG146" t="n">
         <v>0</v>
       </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16914,6 +17354,9 @@
       <c r="AG147" t="n">
         <v>0</v>
       </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17027,6 +17470,9 @@
       <c r="AG148" t="n">
         <v>0</v>
       </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17138,6 +17584,9 @@
       <c r="AG149" t="n">
         <v>0</v>
       </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17249,6 +17698,9 @@
       <c r="AG150" t="n">
         <v>0</v>
       </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17362,6 +17814,9 @@
       <c r="AG151" t="n">
         <v>0</v>
       </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17475,6 +17930,9 @@
       <c r="AG152" t="n">
         <v>0</v>
       </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17588,6 +18046,9 @@
       <c r="AG153" t="n">
         <v>0</v>
       </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17699,6 +18160,9 @@
       <c r="AG154" t="n">
         <v>0</v>
       </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17810,6 +18274,9 @@
       <c r="AG155" t="n">
         <v>0</v>
       </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17923,6 +18390,9 @@
       <c r="AG156" t="n">
         <v>0</v>
       </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18034,6 +18504,9 @@
       <c r="AG157" t="n">
         <v>0</v>
       </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18145,6 +18618,9 @@
       <c r="AG158" t="n">
         <v>0</v>
       </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18258,6 +18734,9 @@
       <c r="AG159" t="n">
         <v>0</v>
       </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18369,6 +18848,9 @@
       <c r="AG160" t="n">
         <v>0</v>
       </c>
+      <c r="AH160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18482,6 +18964,9 @@
       <c r="AG161" t="n">
         <v>0</v>
       </c>
+      <c r="AH161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18595,6 +19080,9 @@
       <c r="AG162" t="n">
         <v>0</v>
       </c>
+      <c r="AH162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18708,6 +19196,9 @@
       <c r="AG163" t="n">
         <v>0</v>
       </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18821,6 +19312,9 @@
       <c r="AG164" t="n">
         <v>0</v>
       </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18934,6 +19428,9 @@
       <c r="AG165" t="n">
         <v>0</v>
       </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19043,6 +19540,9 @@
         <v>0</v>
       </c>
       <c r="AG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19156,6 +19656,9 @@
       <c r="AG167" t="n">
         <v>0</v>
       </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19271,6 +19774,9 @@
       <c r="AG168" t="n">
         <v>0</v>
       </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19386,6 +19892,9 @@
       <c r="AG169" t="n">
         <v>0</v>
       </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19501,6 +20010,9 @@
       <c r="AG170" t="n">
         <v>0</v>
       </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19616,6 +20128,9 @@
       <c r="AG171" t="n">
         <v>0</v>
       </c>
+      <c r="AH171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19733,6 +20248,9 @@
       <c r="AG172" t="n">
         <v>0</v>
       </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19850,6 +20368,9 @@
       <c r="AG173" t="n">
         <v>0</v>
       </c>
+      <c r="AH173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19965,6 +20486,9 @@
       <c r="AG174" t="n">
         <v>0</v>
       </c>
+      <c r="AH174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20082,6 +20606,9 @@
       <c r="AG175" t="n">
         <v>0</v>
       </c>
+      <c r="AH175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20199,6 +20726,9 @@
       <c r="AG176" t="n">
         <v>0</v>
       </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20314,6 +20844,9 @@
       <c r="AG177" t="n">
         <v>0</v>
       </c>
+      <c r="AH177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -20429,6 +20962,9 @@
       <c r="AG178" t="n">
         <v>0</v>
       </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20540,6 +21076,9 @@
       <c r="AG179" t="n">
         <v>0</v>
       </c>
+      <c r="AH179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20653,6 +21192,9 @@
       <c r="AG180" t="n">
         <v>0</v>
       </c>
+      <c r="AH180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20766,6 +21308,9 @@
       <c r="AG181" t="n">
         <v>0</v>
       </c>
+      <c r="AH181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20877,6 +21422,9 @@
       <c r="AG182" t="n">
         <v>0</v>
       </c>
+      <c r="AH182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20988,6 +21536,9 @@
       <c r="AG183" t="n">
         <v>0</v>
       </c>
+      <c r="AH183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -21099,6 +21650,9 @@
       <c r="AG184" t="n">
         <v>0</v>
       </c>
+      <c r="AH184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -21210,6 +21764,9 @@
       <c r="AG185" t="n">
         <v>0</v>
       </c>
+      <c r="AH185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21323,6 +21880,9 @@
       <c r="AG186" t="n">
         <v>0</v>
       </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -21434,6 +21994,9 @@
       <c r="AG187" t="n">
         <v>0</v>
       </c>
+      <c r="AH187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -21545,6 +22108,9 @@
       <c r="AG188" t="n">
         <v>0</v>
       </c>
+      <c r="AH188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -21656,6 +22222,9 @@
       <c r="AG189" t="n">
         <v>0</v>
       </c>
+      <c r="AH189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -21767,6 +22336,9 @@
       <c r="AG190" t="n">
         <v>0</v>
       </c>
+      <c r="AH190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21878,6 +22450,9 @@
       <c r="AG191" t="n">
         <v>0</v>
       </c>
+      <c r="AH191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -21989,6 +22564,9 @@
       <c r="AG192" t="n">
         <v>0</v>
       </c>
+      <c r="AH192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -22100,6 +22678,9 @@
       <c r="AG193" t="n">
         <v>0</v>
       </c>
+      <c r="AH193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -22211,6 +22792,9 @@
       <c r="AG194" t="n">
         <v>0</v>
       </c>
+      <c r="AH194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -22324,6 +22908,9 @@
       <c r="AG195" t="n">
         <v>0</v>
       </c>
+      <c r="AH195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -22437,6 +23024,9 @@
       <c r="AG196" t="n">
         <v>0</v>
       </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -22548,6 +23138,9 @@
       <c r="AG197" t="n">
         <v>0</v>
       </c>
+      <c r="AH197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -22661,6 +23254,9 @@
       <c r="AG198" t="n">
         <v>0</v>
       </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -22772,6 +23368,9 @@
       <c r="AG199" t="n">
         <v>0</v>
       </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22885,6 +23484,9 @@
       <c r="AG200" t="n">
         <v>0</v>
       </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -22998,6 +23600,9 @@
       <c r="AG201" t="n">
         <v>0</v>
       </c>
+      <c r="AH201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -23109,6 +23714,9 @@
       <c r="AG202" t="n">
         <v>0</v>
       </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -23220,6 +23828,9 @@
       <c r="AG203" t="n">
         <v>0</v>
       </c>
+      <c r="AH203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -23333,6 +23944,9 @@
       <c r="AG204" t="n">
         <v>0</v>
       </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -23446,6 +24060,9 @@
       <c r="AG205" t="n">
         <v>0</v>
       </c>
+      <c r="AH205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -23557,6 +24174,9 @@
       <c r="AG206" t="n">
         <v>0</v>
       </c>
+      <c r="AH206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -23668,6 +24288,9 @@
       <c r="AG207" t="n">
         <v>0</v>
       </c>
+      <c r="AH207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -23781,6 +24404,9 @@
       <c r="AG208" t="n">
         <v>0</v>
       </c>
+      <c r="AH208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -23894,6 +24520,9 @@
       <c r="AG209" t="n">
         <v>0</v>
       </c>
+      <c r="AH209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24005,6 +24634,9 @@
       <c r="AG210" t="n">
         <v>0</v>
       </c>
+      <c r="AH210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -24116,6 +24748,9 @@
       <c r="AG211" t="n">
         <v>0</v>
       </c>
+      <c r="AH211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -24227,6 +24862,9 @@
       <c r="AG212" t="n">
         <v>0</v>
       </c>
+      <c r="AH212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -24338,6 +24976,9 @@
       <c r="AG213" t="n">
         <v>0</v>
       </c>
+      <c r="AH213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -24449,6 +25090,9 @@
       <c r="AG214" t="n">
         <v>0</v>
       </c>
+      <c r="AH214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -24562,6 +25206,9 @@
       <c r="AG215" t="n">
         <v>0</v>
       </c>
+      <c r="AH215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -24673,6 +25320,9 @@
       <c r="AG216" t="n">
         <v>0</v>
       </c>
+      <c r="AH216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -24784,6 +25434,9 @@
       <c r="AG217" t="n">
         <v>0</v>
       </c>
+      <c r="AH217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -24895,6 +25548,9 @@
       <c r="AG218" t="n">
         <v>0</v>
       </c>
+      <c r="AH218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -25006,6 +25662,9 @@
       <c r="AG219" t="n">
         <v>0</v>
       </c>
+      <c r="AH219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -25119,6 +25778,9 @@
       <c r="AG220" t="n">
         <v>0</v>
       </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -25230,6 +25892,9 @@
       <c r="AG221" t="n">
         <v>0</v>
       </c>
+      <c r="AH221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -25341,6 +26006,9 @@
       <c r="AG222" t="n">
         <v>0</v>
       </c>
+      <c r="AH222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -25454,6 +26122,9 @@
       <c r="AG223" t="n">
         <v>0</v>
       </c>
+      <c r="AH223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25567,6 +26238,9 @@
       <c r="AG224" t="n">
         <v>0</v>
       </c>
+      <c r="AH224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -25680,6 +26354,9 @@
       <c r="AG225" t="n">
         <v>0</v>
       </c>
+      <c r="AH225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -25793,6 +26470,9 @@
       <c r="AG226" t="n">
         <v>0</v>
       </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -25904,6 +26584,9 @@
       <c r="AG227" t="n">
         <v>0</v>
       </c>
+      <c r="AH227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -26015,6 +26698,9 @@
       <c r="AG228" t="n">
         <v>0</v>
       </c>
+      <c r="AH228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -26126,6 +26812,9 @@
       <c r="AG229" t="n">
         <v>0</v>
       </c>
+      <c r="AH229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -26237,6 +26926,9 @@
       <c r="AG230" t="n">
         <v>0</v>
       </c>
+      <c r="AH230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -26348,6 +27040,9 @@
       <c r="AG231" t="n">
         <v>0</v>
       </c>
+      <c r="AH231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -26459,6 +27154,9 @@
       <c r="AG232" t="n">
         <v>0</v>
       </c>
+      <c r="AH232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -26570,6 +27268,9 @@
       <c r="AG233" t="n">
         <v>0</v>
       </c>
+      <c r="AH233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -26683,6 +27384,9 @@
       <c r="AG234" t="n">
         <v>0</v>
       </c>
+      <c r="AH234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -26796,6 +27500,9 @@
       <c r="AG235" t="n">
         <v>0</v>
       </c>
+      <c r="AH235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -26909,6 +27616,9 @@
       <c r="AG236" t="n">
         <v>0</v>
       </c>
+      <c r="AH236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -27022,6 +27732,9 @@
       <c r="AG237" t="n">
         <v>0</v>
       </c>
+      <c r="AH237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -27135,6 +27848,9 @@
       <c r="AG238" t="n">
         <v>0</v>
       </c>
+      <c r="AH238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -27246,6 +27962,9 @@
       <c r="AG239" t="n">
         <v>0</v>
       </c>
+      <c r="AH239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -27359,6 +28078,9 @@
       <c r="AG240" t="n">
         <v>0</v>
       </c>
+      <c r="AH240" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -27470,6 +28192,9 @@
       <c r="AG241" t="n">
         <v>0</v>
       </c>
+      <c r="AH241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -27581,6 +28306,9 @@
       <c r="AG242" t="n">
         <v>0</v>
       </c>
+      <c r="AH242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -27692,6 +28420,9 @@
       <c r="AG243" t="n">
         <v>0</v>
       </c>
+      <c r="AH243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -27803,6 +28534,9 @@
       <c r="AG244" t="n">
         <v>0</v>
       </c>
+      <c r="AH244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -27914,6 +28648,9 @@
       <c r="AG245" t="n">
         <v>0</v>
       </c>
+      <c r="AH245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -28027,6 +28764,9 @@
       <c r="AG246" t="n">
         <v>0</v>
       </c>
+      <c r="AH246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -28140,6 +28880,9 @@
       <c r="AG247" t="n">
         <v>0</v>
       </c>
+      <c r="AH247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -28253,6 +28996,9 @@
       <c r="AG248" t="n">
         <v>0</v>
       </c>
+      <c r="AH248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -28364,6 +29110,9 @@
       <c r="AG249" t="n">
         <v>0</v>
       </c>
+      <c r="AH249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -28475,6 +29224,9 @@
       <c r="AG250" t="n">
         <v>0</v>
       </c>
+      <c r="AH250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -28586,6 +29338,9 @@
       <c r="AG251" t="n">
         <v>0</v>
       </c>
+      <c r="AH251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -28699,6 +29454,9 @@
       <c r="AG252" t="n">
         <v>0</v>
       </c>
+      <c r="AH252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -28810,6 +29568,9 @@
       <c r="AG253" t="n">
         <v>0</v>
       </c>
+      <c r="AH253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -28921,6 +29682,9 @@
       <c r="AG254" t="n">
         <v>0</v>
       </c>
+      <c r="AH254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -29032,6 +29796,9 @@
       <c r="AG255" t="n">
         <v>0</v>
       </c>
+      <c r="AH255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -29145,6 +29912,9 @@
       <c r="AG256" t="n">
         <v>0</v>
       </c>
+      <c r="AH256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -29258,6 +30028,9 @@
       <c r="AG257" t="n">
         <v>0</v>
       </c>
+      <c r="AH257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -29369,6 +30142,9 @@
       <c r="AG258" t="n">
         <v>0</v>
       </c>
+      <c r="AH258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -29480,6 +30256,9 @@
       <c r="AG259" t="n">
         <v>0</v>
       </c>
+      <c r="AH259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -29593,6 +30372,9 @@
       <c r="AG260" t="n">
         <v>0</v>
       </c>
+      <c r="AH260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -29704,6 +30486,9 @@
       <c r="AG261" t="n">
         <v>0</v>
       </c>
+      <c r="AH261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -29815,6 +30600,9 @@
       <c r="AG262" t="n">
         <v>0</v>
       </c>
+      <c r="AH262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -29928,6 +30716,9 @@
       <c r="AG263" t="n">
         <v>0</v>
       </c>
+      <c r="AH263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -30039,6 +30830,9 @@
       <c r="AG264" t="n">
         <v>0</v>
       </c>
+      <c r="AH264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -30150,6 +30944,9 @@
       <c r="AG265" t="n">
         <v>0</v>
       </c>
+      <c r="AH265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -30261,6 +31058,9 @@
       <c r="AG266" t="n">
         <v>0</v>
       </c>
+      <c r="AH266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -30372,6 +31172,9 @@
       <c r="AG267" t="n">
         <v>0</v>
       </c>
+      <c r="AH267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -30485,6 +31288,9 @@
       <c r="AG268" t="n">
         <v>0</v>
       </c>
+      <c r="AH268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -30598,6 +31404,9 @@
       <c r="AG269" t="n">
         <v>0</v>
       </c>
+      <c r="AH269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -30709,6 +31518,9 @@
       <c r="AG270" t="n">
         <v>0</v>
       </c>
+      <c r="AH270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -30820,6 +31632,9 @@
       <c r="AG271" t="n">
         <v>0</v>
       </c>
+      <c r="AH271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -30931,6 +31746,9 @@
       <c r="AG272" t="n">
         <v>0</v>
       </c>
+      <c r="AH272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -31042,6 +31860,9 @@
       <c r="AG273" t="n">
         <v>0</v>
       </c>
+      <c r="AH273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -31153,6 +31974,9 @@
       <c r="AG274" t="n">
         <v>0</v>
       </c>
+      <c r="AH274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -31266,6 +32090,9 @@
       <c r="AG275" t="n">
         <v>0</v>
       </c>
+      <c r="AH275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -31377,6 +32204,9 @@
       <c r="AG276" t="n">
         <v>0</v>
       </c>
+      <c r="AH276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -31488,6 +32318,9 @@
       <c r="AG277" t="n">
         <v>0</v>
       </c>
+      <c r="AH277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -31599,6 +32432,9 @@
       <c r="AG278" t="n">
         <v>0</v>
       </c>
+      <c r="AH278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -31710,6 +32546,9 @@
       <c r="AG279" t="n">
         <v>0</v>
       </c>
+      <c r="AH279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -31823,6 +32662,9 @@
       <c r="AG280" t="n">
         <v>0</v>
       </c>
+      <c r="AH280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -31936,6 +32778,9 @@
       <c r="AG281" t="n">
         <v>0</v>
       </c>
+      <c r="AH281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -32049,6 +32894,9 @@
       <c r="AG282" t="n">
         <v>0</v>
       </c>
+      <c r="AH282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -32162,6 +33010,9 @@
       <c r="AG283" t="n">
         <v>0</v>
       </c>
+      <c r="AH283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -32275,6 +33126,9 @@
       <c r="AG284" t="n">
         <v>0</v>
       </c>
+      <c r="AH284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -32386,6 +33240,9 @@
       <c r="AG285" t="n">
         <v>0</v>
       </c>
+      <c r="AH285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -32499,6 +33356,9 @@
       <c r="AG286" t="n">
         <v>0</v>
       </c>
+      <c r="AH286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -32612,6 +33472,9 @@
       <c r="AG287" t="n">
         <v>0</v>
       </c>
+      <c r="AH287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -32723,6 +33586,9 @@
       <c r="AG288" t="n">
         <v>0</v>
       </c>
+      <c r="AH288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -32834,6 +33700,9 @@
       <c r="AG289" t="n">
         <v>0</v>
       </c>
+      <c r="AH289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -32945,6 +33814,9 @@
       <c r="AG290" t="n">
         <v>0</v>
       </c>
+      <c r="AH290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -33056,6 +33928,9 @@
       <c r="AG291" t="n">
         <v>0</v>
       </c>
+      <c r="AH291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -33169,6 +34044,9 @@
       <c r="AG292" t="n">
         <v>0</v>
       </c>
+      <c r="AH292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -33282,6 +34160,9 @@
       <c r="AG293" t="n">
         <v>0</v>
       </c>
+      <c r="AH293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -33393,6 +34274,9 @@
       <c r="AG294" t="n">
         <v>0</v>
       </c>
+      <c r="AH294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -33504,6 +34388,9 @@
       <c r="AG295" t="n">
         <v>0</v>
       </c>
+      <c r="AH295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -33617,6 +34504,9 @@
       <c r="AG296" t="n">
         <v>0</v>
       </c>
+      <c r="AH296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -33728,6 +34618,9 @@
       <c r="AG297" t="n">
         <v>0</v>
       </c>
+      <c r="AH297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -33839,6 +34732,9 @@
       <c r="AG298" t="n">
         <v>0</v>
       </c>
+      <c r="AH298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -33950,6 +34846,9 @@
       <c r="AG299" t="n">
         <v>0</v>
       </c>
+      <c r="AH299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -34063,6 +34962,9 @@
       <c r="AG300" t="n">
         <v>0</v>
       </c>
+      <c r="AH300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -34176,6 +35078,9 @@
       <c r="AG301" t="n">
         <v>0</v>
       </c>
+      <c r="AH301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -34289,6 +35194,9 @@
       <c r="AG302" t="n">
         <v>0</v>
       </c>
+      <c r="AH302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -34400,6 +35308,9 @@
       <c r="AG303" t="n">
         <v>0</v>
       </c>
+      <c r="AH303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -34511,6 +35422,9 @@
       <c r="AG304" t="n">
         <v>0</v>
       </c>
+      <c r="AH304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -34622,6 +35536,9 @@
       <c r="AG305" t="n">
         <v>0</v>
       </c>
+      <c r="AH305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -34735,6 +35652,9 @@
       <c r="AG306" t="n">
         <v>0</v>
       </c>
+      <c r="AH306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -34846,6 +35766,9 @@
       <c r="AG307" t="n">
         <v>0</v>
       </c>
+      <c r="AH307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -34959,6 +35882,9 @@
       <c r="AG308" t="n">
         <v>0</v>
       </c>
+      <c r="AH308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -35070,6 +35996,9 @@
       <c r="AG309" t="n">
         <v>0</v>
       </c>
+      <c r="AH309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -35181,6 +36110,9 @@
       <c r="AG310" t="n">
         <v>0</v>
       </c>
+      <c r="AH310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -35292,6 +36224,9 @@
       <c r="AG311" t="n">
         <v>0</v>
       </c>
+      <c r="AH311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -35403,6 +36338,9 @@
       <c r="AG312" t="n">
         <v>0</v>
       </c>
+      <c r="AH312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -35516,6 +36454,9 @@
       <c r="AG313" t="n">
         <v>0</v>
       </c>
+      <c r="AH313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -35629,6 +36570,9 @@
       <c r="AG314" t="n">
         <v>0</v>
       </c>
+      <c r="AH314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -35740,6 +36684,9 @@
       <c r="AG315" t="n">
         <v>0</v>
       </c>
+      <c r="AH315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -35851,6 +36798,9 @@
       <c r="AG316" t="n">
         <v>0</v>
       </c>
+      <c r="AH316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -35964,6 +36914,9 @@
       <c r="AG317" t="n">
         <v>0</v>
       </c>
+      <c r="AH317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -36075,6 +37028,9 @@
       <c r="AG318" t="n">
         <v>0</v>
       </c>
+      <c r="AH318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -36186,6 +37142,9 @@
       <c r="AG319" t="n">
         <v>0</v>
       </c>
+      <c r="AH319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -36299,6 +37258,9 @@
       <c r="AG320" t="n">
         <v>0</v>
       </c>
+      <c r="AH320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -36412,6 +37374,9 @@
       <c r="AG321" t="n">
         <v>0</v>
       </c>
+      <c r="AH321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -36525,6 +37490,9 @@
       <c r="AG322" t="n">
         <v>0</v>
       </c>
+      <c r="AH322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -36636,6 +37604,9 @@
       <c r="AG323" t="n">
         <v>0</v>
       </c>
+      <c r="AH323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -36747,6 +37718,9 @@
       <c r="AG324" t="n">
         <v>0</v>
       </c>
+      <c r="AH324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -36860,6 +37834,9 @@
       <c r="AG325" t="n">
         <v>0</v>
       </c>
+      <c r="AH325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -36971,6 +37948,9 @@
       <c r="AG326" t="n">
         <v>0</v>
       </c>
+      <c r="AH326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -37084,6 +38064,9 @@
       <c r="AG327" t="n">
         <v>0</v>
       </c>
+      <c r="AH327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -37197,6 +38180,9 @@
       <c r="AG328" t="n">
         <v>0</v>
       </c>
+      <c r="AH328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -37310,6 +38296,9 @@
       <c r="AG329" t="n">
         <v>0</v>
       </c>
+      <c r="AH329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -37421,6 +38410,9 @@
       <c r="AG330" t="n">
         <v>0</v>
       </c>
+      <c r="AH330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -37534,6 +38526,9 @@
       <c r="AG331" t="n">
         <v>0</v>
       </c>
+      <c r="AH331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -37645,6 +38640,9 @@
       <c r="AG332" t="n">
         <v>0</v>
       </c>
+      <c r="AH332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -37756,6 +38754,9 @@
       <c r="AG333" t="n">
         <v>0</v>
       </c>
+      <c r="AH333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -37869,6 +38870,9 @@
       <c r="AG334" t="n">
         <v>0</v>
       </c>
+      <c r="AH334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -37982,6 +38986,9 @@
       <c r="AG335" t="n">
         <v>0</v>
       </c>
+      <c r="AH335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -38095,6 +39102,9 @@
       <c r="AG336" t="n">
         <v>0</v>
       </c>
+      <c r="AH336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -38206,6 +39216,9 @@
       <c r="AG337" t="n">
         <v>0</v>
       </c>
+      <c r="AH337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -38319,6 +39332,9 @@
       <c r="AG338" t="n">
         <v>0</v>
       </c>
+      <c r="AH338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -38432,6 +39448,9 @@
       <c r="AG339" t="n">
         <v>0</v>
       </c>
+      <c r="AH339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -38543,6 +39562,9 @@
       <c r="AG340" t="n">
         <v>0</v>
       </c>
+      <c r="AH340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -38656,6 +39678,9 @@
       <c r="AG341" t="n">
         <v>0</v>
       </c>
+      <c r="AH341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -38767,6 +39792,9 @@
       <c r="AG342" t="n">
         <v>0</v>
       </c>
+      <c r="AH342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -38880,6 +39908,9 @@
       <c r="AG343" t="n">
         <v>0</v>
       </c>
+      <c r="AH343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -38995,6 +40026,9 @@
       <c r="AG344" t="n">
         <v>0</v>
       </c>
+      <c r="AH344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -39108,6 +40142,9 @@
       <c r="AG345" t="n">
         <v>0</v>
       </c>
+      <c r="AH345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -39223,6 +40260,9 @@
       <c r="AG346" t="n">
         <v>0</v>
       </c>
+      <c r="AH346" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -39334,6 +40374,9 @@
       <c r="AG347" t="n">
         <v>0</v>
       </c>
+      <c r="AH347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -39445,6 +40488,9 @@
       <c r="AG348" t="n">
         <v>0</v>
       </c>
+      <c r="AH348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -39558,6 +40604,9 @@
       <c r="AG349" t="n">
         <v>0</v>
       </c>
+      <c r="AH349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -39669,6 +40718,9 @@
       <c r="AG350" t="n">
         <v>0</v>
       </c>
+      <c r="AH350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -39780,6 +40832,9 @@
       <c r="AG351" t="n">
         <v>0</v>
       </c>
+      <c r="AH351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -39891,6 +40946,9 @@
       <c r="AG352" t="n">
         <v>0</v>
       </c>
+      <c r="AH352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -40002,6 +41060,9 @@
         <v>0</v>
       </c>
       <c r="AG353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40117,6 +41178,9 @@
       <c r="AG354" t="n">
         <v>0</v>
       </c>
+      <c r="AH354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -40228,6 +41292,9 @@
       <c r="AG355" t="n">
         <v>0</v>
       </c>
+      <c r="AH355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -40341,6 +41408,9 @@
       <c r="AG356" t="n">
         <v>0</v>
       </c>
+      <c r="AH356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -40452,6 +41522,9 @@
       <c r="AG357" t="n">
         <v>0</v>
       </c>
+      <c r="AH357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -40565,6 +41638,9 @@
       <c r="AG358" t="n">
         <v>0</v>
       </c>
+      <c r="AH358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -40678,6 +41754,9 @@
       <c r="AG359" t="n">
         <v>0</v>
       </c>
+      <c r="AH359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -40789,6 +41868,9 @@
       <c r="AG360" t="n">
         <v>0</v>
       </c>
+      <c r="AH360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -40900,6 +41982,9 @@
       <c r="AG361" t="n">
         <v>0</v>
       </c>
+      <c r="AH361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -41011,6 +42096,9 @@
       <c r="AG362" t="n">
         <v>0</v>
       </c>
+      <c r="AH362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -41122,6 +42210,9 @@
       <c r="AG363" t="n">
         <v>0</v>
       </c>
+      <c r="AH363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -41233,6 +42324,9 @@
       <c r="AG364" t="n">
         <v>0</v>
       </c>
+      <c r="AH364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -41344,6 +42438,9 @@
       <c r="AG365" t="n">
         <v>0</v>
       </c>
+      <c r="AH365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -41457,6 +42554,9 @@
       <c r="AG366" t="n">
         <v>0</v>
       </c>
+      <c r="AH366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -41570,6 +42670,9 @@
       <c r="AG367" t="n">
         <v>0</v>
       </c>
+      <c r="AH367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -41681,6 +42784,9 @@
       <c r="AG368" t="n">
         <v>0</v>
       </c>
+      <c r="AH368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -41794,6 +42900,9 @@
       <c r="AG369" t="n">
         <v>0</v>
       </c>
+      <c r="AH369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -41905,6 +43014,9 @@
       <c r="AG370" t="n">
         <v>0</v>
       </c>
+      <c r="AH370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -42018,6 +43130,9 @@
       <c r="AG371" t="n">
         <v>0</v>
       </c>
+      <c r="AH371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -42131,6 +43246,9 @@
       <c r="AG372" t="n">
         <v>0</v>
       </c>
+      <c r="AH372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -42242,6 +43360,9 @@
       <c r="AG373" t="n">
         <v>0</v>
       </c>
+      <c r="AH373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -42355,6 +43476,9 @@
       <c r="AG374" t="n">
         <v>0</v>
       </c>
+      <c r="AH374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -42468,6 +43592,9 @@
       <c r="AG375" t="n">
         <v>0</v>
       </c>
+      <c r="AH375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -42579,6 +43706,9 @@
       <c r="AG376" t="n">
         <v>0</v>
       </c>
+      <c r="AH376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -42690,6 +43820,9 @@
       <c r="AG377" t="n">
         <v>0</v>
       </c>
+      <c r="AH377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -42801,6 +43934,9 @@
       <c r="AG378" t="n">
         <v>0</v>
       </c>
+      <c r="AH378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -42912,6 +44048,9 @@
       <c r="AG379" t="n">
         <v>0</v>
       </c>
+      <c r="AH379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -43023,6 +44162,9 @@
       <c r="AG380" t="n">
         <v>0</v>
       </c>
+      <c r="AH380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -43134,6 +44276,9 @@
       <c r="AG381" t="n">
         <v>0</v>
       </c>
+      <c r="AH381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -43247,6 +44392,9 @@
       <c r="AG382" t="n">
         <v>0</v>
       </c>
+      <c r="AH382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -43360,6 +44508,9 @@
       <c r="AG383" t="n">
         <v>0</v>
       </c>
+      <c r="AH383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -43471,6 +44622,9 @@
       <c r="AG384" t="n">
         <v>0</v>
       </c>
+      <c r="AH384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -43582,6 +44736,9 @@
       <c r="AG385" t="n">
         <v>0</v>
       </c>
+      <c r="AH385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -43693,6 +44850,9 @@
       <c r="AG386" t="n">
         <v>0</v>
       </c>
+      <c r="AH386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -43806,6 +44966,9 @@
       <c r="AG387" t="n">
         <v>0</v>
       </c>
+      <c r="AH387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -43919,6 +45082,9 @@
       <c r="AG388" t="n">
         <v>0</v>
       </c>
+      <c r="AH388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -44032,6 +45198,9 @@
       <c r="AG389" t="n">
         <v>0</v>
       </c>
+      <c r="AH389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -44145,6 +45314,9 @@
       <c r="AG390" t="n">
         <v>0</v>
       </c>
+      <c r="AH390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -44256,6 +45428,9 @@
       <c r="AG391" t="n">
         <v>0</v>
       </c>
+      <c r="AH391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -44367,6 +45542,9 @@
       <c r="AG392" t="n">
         <v>0</v>
       </c>
+      <c r="AH392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -44478,6 +45656,9 @@
       <c r="AG393" t="n">
         <v>0</v>
       </c>
+      <c r="AH393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -44589,6 +45770,9 @@
       <c r="AG394" t="n">
         <v>0</v>
       </c>
+      <c r="AH394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -44700,6 +45884,9 @@
       <c r="AG395" t="n">
         <v>0</v>
       </c>
+      <c r="AH395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -44813,6 +46000,9 @@
       <c r="AG396" t="n">
         <v>0</v>
       </c>
+      <c r="AH396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -44924,6 +46114,9 @@
       <c r="AG397" t="n">
         <v>0</v>
       </c>
+      <c r="AH397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -45037,6 +46230,9 @@
       <c r="AG398" t="n">
         <v>0</v>
       </c>
+      <c r="AH398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -45150,6 +46346,9 @@
       <c r="AG399" t="n">
         <v>0</v>
       </c>
+      <c r="AH399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -45263,6 +46462,9 @@
       <c r="AG400" t="n">
         <v>0</v>
       </c>
+      <c r="AH400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -45376,6 +46578,9 @@
       <c r="AG401" t="n">
         <v>0</v>
       </c>
+      <c r="AH401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -45489,6 +46694,9 @@
       <c r="AG402" t="n">
         <v>0</v>
       </c>
+      <c r="AH402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -45600,6 +46808,9 @@
       <c r="AG403" t="n">
         <v>0</v>
       </c>
+      <c r="AH403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -45711,6 +46922,9 @@
       <c r="AG404" t="n">
         <v>0</v>
       </c>
+      <c r="AH404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -45822,6 +47036,9 @@
       <c r="AG405" t="n">
         <v>0</v>
       </c>
+      <c r="AH405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -45933,6 +47150,9 @@
       <c r="AG406" t="n">
         <v>0</v>
       </c>
+      <c r="AH406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -46046,6 +47266,9 @@
       <c r="AG407" t="n">
         <v>0</v>
       </c>
+      <c r="AH407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -46159,6 +47382,9 @@
       <c r="AG408" t="n">
         <v>0</v>
       </c>
+      <c r="AH408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -46270,6 +47496,9 @@
       <c r="AG409" t="n">
         <v>0</v>
       </c>
+      <c r="AH409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -46383,6 +47612,9 @@
       <c r="AG410" t="n">
         <v>0</v>
       </c>
+      <c r="AH410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -46496,6 +47728,9 @@
       <c r="AG411" t="n">
         <v>0</v>
       </c>
+      <c r="AH411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -46607,6 +47842,9 @@
       <c r="AG412" t="n">
         <v>0</v>
       </c>
+      <c r="AH412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -46718,6 +47956,9 @@
       <c r="AG413" t="n">
         <v>0</v>
       </c>
+      <c r="AH413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -46829,6 +48070,9 @@
       <c r="AG414" t="n">
         <v>0</v>
       </c>
+      <c r="AH414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -46942,6 +48186,9 @@
       <c r="AG415" t="n">
         <v>0</v>
       </c>
+      <c r="AH415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -47053,6 +48300,9 @@
       <c r="AG416" t="n">
         <v>0</v>
       </c>
+      <c r="AH416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -47164,6 +48414,9 @@
       <c r="AG417" t="n">
         <v>0</v>
       </c>
+      <c r="AH417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -47277,6 +48530,9 @@
       <c r="AG418" t="n">
         <v>0</v>
       </c>
+      <c r="AH418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -47388,6 +48644,9 @@
       <c r="AG419" t="n">
         <v>0</v>
       </c>
+      <c r="AH419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -47499,6 +48758,9 @@
       <c r="AG420" t="n">
         <v>0</v>
       </c>
+      <c r="AH420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -47612,6 +48874,9 @@
       <c r="AG421" t="n">
         <v>0</v>
       </c>
+      <c r="AH421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -47723,6 +48988,9 @@
       <c r="AG422" t="n">
         <v>0</v>
       </c>
+      <c r="AH422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -47836,6 +49104,9 @@
       <c r="AG423" t="n">
         <v>0</v>
       </c>
+      <c r="AH423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -47949,6 +49220,9 @@
       <c r="AG424" t="n">
         <v>0</v>
       </c>
+      <c r="AH424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -48060,6 +49334,9 @@
       <c r="AG425" t="n">
         <v>0</v>
       </c>
+      <c r="AH425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -48171,6 +49448,9 @@
       <c r="AG426" t="n">
         <v>0</v>
       </c>
+      <c r="AH426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -48284,6 +49564,9 @@
       <c r="AG427" t="n">
         <v>0</v>
       </c>
+      <c r="AH427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -48397,6 +49680,9 @@
       <c r="AG428" t="n">
         <v>0</v>
       </c>
+      <c r="AH428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -48510,6 +49796,9 @@
       <c r="AG429" t="n">
         <v>0</v>
       </c>
+      <c r="AH429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -48621,6 +49910,9 @@
       <c r="AG430" t="n">
         <v>0</v>
       </c>
+      <c r="AH430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -48734,6 +50026,9 @@
       <c r="AG431" t="n">
         <v>0</v>
       </c>
+      <c r="AH431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -48845,6 +50140,9 @@
       <c r="AG432" t="n">
         <v>0</v>
       </c>
+      <c r="AH432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -48956,6 +50254,9 @@
       <c r="AG433" t="n">
         <v>0</v>
       </c>
+      <c r="AH433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -49067,6 +50368,9 @@
       <c r="AG434" t="n">
         <v>0</v>
       </c>
+      <c r="AH434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -49178,6 +50482,9 @@
       <c r="AG435" t="n">
         <v>0</v>
       </c>
+      <c r="AH435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -49289,6 +50596,9 @@
       <c r="AG436" t="n">
         <v>0</v>
       </c>
+      <c r="AH436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -49402,6 +50712,9 @@
       <c r="AG437" t="n">
         <v>0</v>
       </c>
+      <c r="AH437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -49513,6 +50826,9 @@
       <c r="AG438" t="n">
         <v>0</v>
       </c>
+      <c r="AH438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -49624,6 +50940,9 @@
       <c r="AG439" t="n">
         <v>0</v>
       </c>
+      <c r="AH439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -49737,6 +51056,9 @@
       <c r="AG440" t="n">
         <v>0</v>
       </c>
+      <c r="AH440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -49848,6 +51170,9 @@
       <c r="AG441" t="n">
         <v>0</v>
       </c>
+      <c r="AH441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -49959,6 +51284,9 @@
       <c r="AG442" t="n">
         <v>0</v>
       </c>
+      <c r="AH442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -50072,6 +51400,9 @@
       <c r="AG443" t="n">
         <v>0</v>
       </c>
+      <c r="AH443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -50185,6 +51516,9 @@
       <c r="AG444" t="n">
         <v>0</v>
       </c>
+      <c r="AH444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -50296,6 +51630,9 @@
       <c r="AG445" t="n">
         <v>0</v>
       </c>
+      <c r="AH445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -50407,6 +51744,9 @@
       <c r="AG446" t="n">
         <v>0</v>
       </c>
+      <c r="AH446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -50520,6 +51860,9 @@
       <c r="AG447" t="n">
         <v>0</v>
       </c>
+      <c r="AH447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -50633,6 +51976,9 @@
       <c r="AG448" t="n">
         <v>0</v>
       </c>
+      <c r="AH448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -50744,6 +52090,9 @@
       <c r="AG449" t="n">
         <v>0</v>
       </c>
+      <c r="AH449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -50855,6 +52204,9 @@
       <c r="AG450" t="n">
         <v>0</v>
       </c>
+      <c r="AH450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -50968,6 +52320,9 @@
       <c r="AG451" t="n">
         <v>0</v>
       </c>
+      <c r="AH451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -51081,6 +52436,9 @@
       <c r="AG452" t="n">
         <v>0</v>
       </c>
+      <c r="AH452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -51194,6 +52552,9 @@
       <c r="AG453" t="n">
         <v>0</v>
       </c>
+      <c r="AH453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -51307,6 +52668,9 @@
       <c r="AG454" t="n">
         <v>0</v>
       </c>
+      <c r="AH454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -51418,6 +52782,9 @@
       <c r="AG455" t="n">
         <v>0</v>
       </c>
+      <c r="AH455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -51529,6 +52896,9 @@
       <c r="AG456" t="n">
         <v>0</v>
       </c>
+      <c r="AH456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -51638,6 +53008,9 @@
         <v>0</v>
       </c>
       <c r="AG457" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH457" t="n">
         <v>0</v>
       </c>
     </row>
